--- a/Admin/Standardmaterial.xlsx
+++ b/Admin/Standardmaterial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andkos\Desktop\Lagerverwaltung Python\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C88BFE-E92F-46EB-B656-B27CC4520E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD11D055-6B6F-400E-975A-FEFE1042B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{516A1A44-1629-4827-958D-7337927FB3E6}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
   <si>
     <t>MNr</t>
   </si>
@@ -212,6 +212,75 @@
   </si>
   <si>
     <t>SA</t>
+  </si>
+  <si>
+    <t>nVent Kabelöse Stahl, 100 x 100 (4 Stück)</t>
+  </si>
+  <si>
+    <t>nVent-Kontaktscheibe 6 mm 100 St.</t>
+  </si>
+  <si>
+    <t>Modulträger ETSI 6x Modul 16x GfK 1:2sym            </t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1471nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1491nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1511nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1531nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1551nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1571nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1591nm 70km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR CWDM 1611nm 70km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch34 1550.12nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch51 1536.61nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch52 1535.82nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch53 1535.04nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch54 1534.25nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch55 1533.47nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch56 1532.68nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch57 1531.90nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ZR DWDM Ch58 1531.12nm 80km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE LR 10km</t>
+  </si>
+  <si>
+    <t>UniSFP+ 10GE ER 40km</t>
+  </si>
+  <si>
+    <t>PAK</t>
   </si>
 </sst>
 </file>
@@ -305,7 +374,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -629,10 +708,10 @@
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,9 +1641,384 @@
         <v>10</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>40748416</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="3">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>40945101</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>47203868</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>47191080</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>47191081</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>47191082</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>47191083</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>47191084</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>47191085</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>47191086</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>47191087</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>47191105</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>47191122</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>47191123</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>47191124</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>47191125</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>47191126</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>47191127</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>47191128</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>47191129</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>47191078</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>47191079</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" fitToWidth="0" orientation="portrait" r:id="rId1"/>
